--- a/data/trans_bre/P43_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>126,48%</t>
+          <t>68,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>20,71%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 23,55</t>
+          <t>-1,91; 5,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 21,36</t>
+          <t>-2,76; 4,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 25,2</t>
+          <t>-1,73; 4,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 10,92</t>
+          <t>-4,54; 6,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 278,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 209,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 397,67</t>
+          <t>-63,39; 818,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 63,9</t>
+          <t>-43,87; 159,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-35,92; 228,1</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-49,51; 181,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>-24,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>-12,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 10,87</t>
+          <t>-5,09; 1,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 11,11</t>
+          <t>-4,54; 2,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 14,76</t>
+          <t>-3,69; 3,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 10,55</t>
+          <t>-9,5; 4,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 99,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 96,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 144,38</t>
+          <t>-60,03; 40,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 88,12</t>
+          <t>-44,05; 30,88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,59; 56,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-51,92; 44,64</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>43,89%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-28,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 10,37</t>
+          <t>-5,82; 5,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,38</t>
+          <t>-0,37; 7,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 6,87</t>
+          <t>-2,01; 4,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 11,26</t>
+          <t>-11,54; 1,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 88,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 104,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 76,36</t>
+          <t>-42,96; 83,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 162,33</t>
+          <t>-4,78; 129,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-20,31; 74,79</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-60,42; 21,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>-16,19%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 8,82</t>
+          <t>-2,9; 3,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,82</t>
+          <t>-5,36; 2,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 9,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 7,22</t>
+          <t>-0,72; 7,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 72,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 78,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 92,14</t>
+          <t>-31,67; 63,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 56,1</t>
+          <t>-54,22; 45,41</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; 152,98</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,93%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,39%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 1,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 2,38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 2,7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 2,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-26,08; 33,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,69; 37,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,98; 46,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-30,49; 26,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P43_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>68,99%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,71%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>42,09%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>15,5%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>12.57040619827277</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.78382973649337</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>14.29352525343011</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>15.24478428882215</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>1.733986153461124</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.7505542073299687</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.317414350429379</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.9682143344564649</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 5,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 4,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 4,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 6,29</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-63,39; 818,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-43,87; 159,52</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-35,92; 228,1</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-49,51; 181,12</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.210819231154344</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.931246393075595</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.079911671041599</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.029963739898734</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.3075552936521712</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1649332206824971</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1613756129081093</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1204357352223653</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>31.20139931656964</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.98575866068944</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>26.60058726132279</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>35.51165083879433</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>2.871245897981725</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>4.35710826088066</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>4.959720282066383</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,59</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,04</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-24,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-12,36%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-9,54%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 1,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 2,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 3,41</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 4,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-60,03; 40,03</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-44,05; 30,88</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-35,59; 56,99</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-51,92; 44,64</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>5.029486425547752</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.281449822119597</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.466908506226952</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.784167559679689</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.4146589489882974</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3832725117708153</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5526924309842914</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2328762272306585</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,48</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,57%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>43,89%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,17%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-28,7%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.14964055486192</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.773163381838773</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.6178259449504087</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.863333449216321</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.2044753163561042</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1045353318675328</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.01550095422592584</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3024219138115072</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 5,49</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 7,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 4,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 1,58</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-42,96; 83,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 129,9</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-20,31; 74,79</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-60,42; 21,07</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.63588732478548</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.56199553546734</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.88651082528144</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.40953902652279</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.53096049524938</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.171913648650231</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.360617732964277</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9015701849458876</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +881,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-16,19%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>46,91%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.114751582702963</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.988759648482945</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.446491969996943</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.233830481035791</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.3217665137627028</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4478169754060096</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2166852075197667</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2682925860312078</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 3,67</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,36; 2,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 7,36</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-31,67; 63,81</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-54,22; 45,41</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; 152,98</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.266806351827536</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.7104621902284307</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.597014436359909</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.67555516306331</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2739169264044308</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.05437570946397691</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1833971604776586</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5993072199204494</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.6718765040652</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.74482801922831</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.925429070441258</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.545730069400575</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.30845110524548</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.30789621802205</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.793290906135936</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2274796610190946</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,93%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>11,81%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-2,39%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 1,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 2,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 2,7</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 2,19</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-26,08; 33,09</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 37,33</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-16,98; 46,17</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-30,49; 26,33</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.225230751563199</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.473571899958202</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.375709659106513</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.113363407618886</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.4345700568092155</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4224573985174693</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4368835466482485</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.0621417159854056</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3238442939704292</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.031142184502541</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.183218675023723</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.083549894759462</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.02912005969522832</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.07183020364867163</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.07598092203725665</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2623008379109388</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.63422168244161</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.30770920372246</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.784569834035649</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.215456803444043</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>1.100187617011292</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8652218460000738</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8324205377346973</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4258510972427021</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
